--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/test_plans/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F7E8C-BE10-A349-B8A1-E0079520BCDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36082B3-4413-2A4F-86EE-A9827EA968F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37960" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34740" yWindow="820" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression Test Plan" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>PASS:</t>
-  </si>
-  <si>
-    <t>Feedback feature sends an email and the email is received</t>
   </si>
   <si>
     <t>FAIL:</t>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Barcode Generator (2D) - Invalid Barcode</t>
+  </si>
+  <si>
+    <t>Mobile App Support request creates SNOW ticket and email confirmation received</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,9 @@
   </sheetPr>
   <dimension ref="A1:V977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1382,13 +1384,13 @@
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="3"/>
       <c r="D9" s="35"/>
       <c r="E9" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="35"/>
@@ -1410,13 +1412,13 @@
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="3"/>
       <c r="D10" s="35"/>
       <c r="E10" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="35"/>
@@ -1438,13 +1440,13 @@
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="35"/>
       <c r="E11" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="35"/>
@@ -1466,7 +1468,7 @@
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1492,13 +1494,13 @@
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="35"/>
       <c r="E13" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="35"/>
@@ -1520,13 +1522,13 @@
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="35"/>
       <c r="E14" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="35"/>
@@ -1548,13 +1550,13 @@
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="35"/>
       <c r="E15" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="35"/>
@@ -1576,13 +1578,13 @@
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="35"/>
       <c r="E16" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -1604,13 +1606,13 @@
     </row>
     <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="35"/>
       <c r="E17" s="53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="1"/>
@@ -1631,13 +1633,13 @@
     </row>
     <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="35"/>
       <c r="E18" s="54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
@@ -1659,13 +1661,13 @@
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="1"/>
       <c r="E19" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1687,13 +1689,13 @@
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="1"/>
       <c r="E20" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1715,7 +1717,7 @@
     </row>
     <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1741,7 +1743,7 @@
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1767,7 +1769,7 @@
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1793,7 +1795,7 @@
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1818,7 +1820,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1843,7 +1845,7 @@
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1869,7 +1871,7 @@
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
@@ -1895,7 +1897,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -1921,7 +1923,7 @@
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -1946,7 +1948,7 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1971,7 +1973,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1997,7 +1999,7 @@
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2023,7 +2025,7 @@
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2049,7 +2051,7 @@
     </row>
     <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2075,7 +2077,7 @@
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2101,7 +2103,7 @@
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2127,7 +2129,7 @@
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2152,7 +2154,7 @@
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2178,7 +2180,7 @@
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2204,7 +2206,7 @@
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2230,7 +2232,7 @@
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2256,7 +2258,7 @@
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2282,7 +2284,7 @@
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2308,7 +2310,7 @@
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2334,7 +2336,7 @@
     </row>
     <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2360,7 +2362,7 @@
     </row>
     <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2386,7 +2388,7 @@
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2412,7 +2414,7 @@
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2438,7 +2440,7 @@
     </row>
     <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2464,7 +2466,7 @@
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2490,7 +2492,7 @@
     </row>
     <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2516,7 +2518,7 @@
     </row>
     <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -2542,7 +2544,7 @@
     </row>
     <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="3"/>
@@ -24761,18 +24763,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24959,18 +24961,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{C36082B3-4413-2A4F-86EE-A9827EA968F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B5EBEA-6AAD-4F2A-8AED-1A0947DC9ADD}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{C36082B3-4413-2A4F-86EE-A9827EA968F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{202AA7C3-3953-43FB-945F-A52C4E76B208}"/>
   <bookViews>
     <workbookView xWindow="-34740" yWindow="820" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t xml:space="preserve">Regression Test Plan - ${APP_VERSION} - ${BUILD_ENV}  </t>
   </si>
@@ -53,7 +53,24 @@
     <t>Build Info</t>
   </si>
   <si>
-    <t>Time and Date Testing Was Completed:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between 6 AM and 5 PM, Mon-Fri)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
+    </r>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -170,7 +187,13 @@
     <t>Home view logged in as Student displays Student cards</t>
   </si>
   <si>
+    <t>Services Duty Cycle</t>
+  </si>
+  <si>
     <t>Home view logged in as Staff displays Staff cards</t>
+  </si>
+  <si>
+    <t>Platform Duty Cycle - ESR iPaaS - UCSD Collab (atlassian.net)</t>
   </si>
   <si>
     <t>Native Scanner (not logged in) link navigates to Profile SSO Login</t>
@@ -268,12 +291,15 @@
   <si>
     <t>PASS / FAIL</t>
   </si>
+  <si>
+    <t>Notified test requester that you have completed testing (mark this box green after you have informed the test requester that you have finished testing)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -372,6 +398,17 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -571,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -661,9 +698,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -677,9 +711,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -712,11 +743,23 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -909,6 +952,11 @@
       <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFE3AA00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1159,12 +1207,12 @@
   <dimension ref="A1:V977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="A2:C3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="96.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="14" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="2" customWidth="1"/>
@@ -1173,8 +1221,8 @@
     <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="49.5">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -1204,7 +1252,7 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -1234,21 +1282,21 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="36" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
@@ -1272,13 +1320,13 @@
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="29"/>
       <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
@@ -1302,13 +1350,13 @@
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="29"/>
       <c r="E5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1"/>
@@ -1332,8 +1380,8 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1356,8 +1404,8 @@
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="1"/>
       <c r="E7" s="22" t="s">
         <v>17</v>
@@ -1384,8 +1432,8 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="1"/>
       <c r="E8" s="28" t="s">
         <v>19</v>
@@ -1412,8 +1460,8 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="1"/>
       <c r="E9" s="28" t="s">
         <v>21</v>
@@ -1440,8 +1488,8 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="1"/>
       <c r="E10" s="28" t="s">
         <v>23</v>
@@ -1468,8 +1516,8 @@
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="1"/>
       <c r="E11" s="28" t="s">
         <v>25</v>
@@ -1496,8 +1544,8 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="1"/>
       <c r="E12" s="28"/>
       <c r="F12" s="10"/>
@@ -1519,11 +1567,11 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="28.5">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="1"/>
       <c r="E13" s="22" t="s">
         <v>28</v>
@@ -1550,8 +1598,8 @@
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="1"/>
       <c r="E14" s="30" t="s">
         <v>30</v>
@@ -1578,10 +1626,10 @@
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="10"/>
@@ -1606,10 +1654,10 @@
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="10"/>
@@ -1634,10 +1682,10 @@
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="1"/>
@@ -1661,10 +1709,10 @@
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="40" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="1"/>
@@ -1689,10 +1737,10 @@
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="39" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1"/>
@@ -1717,10 +1765,10 @@
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="40" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="1"/>
@@ -1745,11 +1793,13 @@
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="22"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1769,13 +1819,15 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="49"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1795,10 +1847,10 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1821,10 +1873,10 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1846,10 +1898,10 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1871,88 +1923,88 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="39" t="s">
-        <v>50</v>
+      <c r="A28" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="40" t="s">
-        <v>51</v>
+      <c r="A29" s="38" t="s">
+        <v>53</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1973,11 +2025,11 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="39" t="s">
-        <v>52</v>
+      <c r="A30" s="37" t="s">
+        <v>54</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1999,10 +2051,10 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2025,10 +2077,10 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2051,10 +2103,10 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2077,10 +2129,10 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2103,10 +2155,10 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2129,10 +2181,10 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2155,10 +2207,10 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="12"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2180,10 +2232,10 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2206,10 +2258,10 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2232,10 +2284,10 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2258,10 +2310,10 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2284,10 +2336,10 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2310,10 +2362,10 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2336,10 +2388,10 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2362,10 +2414,10 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2388,10 +2440,10 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2414,10 +2466,10 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2440,10 +2492,10 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2466,10 +2518,10 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2492,10 +2544,10 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2518,10 +2570,10 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2544,10 +2596,10 @@
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2570,10 +2622,10 @@
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2595,11 +2647,11 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="31" t="s">
-        <v>76</v>
+      <c r="A54" s="50" t="s">
+        <v>78</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2620,8 +2672,10 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="7"/>
+    <row r="55" spans="1:22" ht="28.5">
+      <c r="A55" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="B55" s="13"/>
       <c r="C55" s="3"/>
       <c r="D55" s="1"/>
@@ -24782,27 +24836,28 @@
     <hyperlink ref="E18" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/rand_datamatrix.html" xr:uid="{F0603421-B501-524E-AA04-748249442AC9}"/>
     <hyperlink ref="E19" r:id="rId6" xr:uid="{00D2F6FE-900E-DA45-9FC3-07F9E053EDD6}"/>
     <hyperlink ref="E20" r:id="rId7" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{A644C3AD-F19C-CD4E-9AB7-0EAA4CE844CC}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{DFD35984-BB3F-4C39-B61B-4BC1D56F79AB}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24989,11 +25044,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-PROD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{C36082B3-4413-2A4F-86EE-A9827EA968F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{202AA7C3-3953-43FB-945F-A52C4E76B208}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{C36082B3-4413-2A4F-86EE-A9827EA968F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4C664AB-920B-4580-98F6-6A012F50541F}"/>
   <bookViews>
     <workbookView xWindow="-34740" yWindow="820" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,24 +53,7 @@
     <t>Build Info</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between 6 AM and 5 PM, Mon-Fri)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
-    </r>
+    <t>Time and Date Testing Was Complete (Testing can be completed any time/date):</t>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -407,9 +390,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="13">
@@ -698,9 +683,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -746,9 +728,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -760,6 +739,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1207,7 +1192,7 @@
   <dimension ref="A1:V977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.25"/>
@@ -1222,7 +1207,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -1252,7 +1237,7 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -1282,21 +1267,21 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="31.5" customHeight="1">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
@@ -1320,13 +1305,13 @@
       <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="29"/>
       <c r="E4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
@@ -1350,13 +1335,13 @@
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="29"/>
       <c r="E5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1"/>
@@ -1380,8 +1365,8 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1404,8 +1389,8 @@
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="1"/>
       <c r="E7" s="22" t="s">
         <v>17</v>
@@ -1432,8 +1417,8 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="1"/>
       <c r="E8" s="28" t="s">
         <v>19</v>
@@ -1460,8 +1445,8 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="1"/>
       <c r="E9" s="28" t="s">
         <v>21</v>
@@ -1488,8 +1473,8 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="1"/>
       <c r="E10" s="28" t="s">
         <v>23</v>
@@ -1516,8 +1501,8 @@
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="1"/>
       <c r="E11" s="28" t="s">
         <v>25</v>
@@ -1544,8 +1529,8 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="1"/>
       <c r="E12" s="28"/>
       <c r="F12" s="10"/>
@@ -1567,11 +1552,11 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="28.5">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="1"/>
       <c r="E13" s="22" t="s">
         <v>28</v>
@@ -1598,8 +1583,8 @@
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="1"/>
       <c r="E14" s="30" t="s">
         <v>30</v>
@@ -1626,10 +1611,10 @@
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="10"/>
@@ -1654,10 +1639,10 @@
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="10"/>
@@ -1682,10 +1667,10 @@
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="1"/>
@@ -1709,10 +1694,10 @@
       <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="1"/>
@@ -1737,10 +1722,10 @@
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1"/>
@@ -1765,10 +1750,10 @@
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="39" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="1"/>
@@ -1793,8 +1778,8 @@
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="1"/>
       <c r="E21" s="22" t="s">
         <v>44</v>
@@ -1821,13 +1806,13 @@
       <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="49"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1849,8 +1834,8 @@
       <c r="A23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1875,8 +1860,8 @@
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1900,8 +1885,8 @@
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1925,25 +1910,25 @@
       <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
@@ -1951,60 +1936,60 @@
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2025,11 +2010,11 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2053,8 +2038,8 @@
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2079,8 +2064,8 @@
       <c r="A32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2105,8 +2090,8 @@
       <c r="A33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2131,8 +2116,8 @@
       <c r="A34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2157,8 +2142,8 @@
       <c r="A35" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2183,8 +2168,8 @@
       <c r="A36" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2209,8 +2194,8 @@
       <c r="A37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
       <c r="D37" s="12"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2234,8 +2219,8 @@
       <c r="A38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2260,8 +2245,8 @@
       <c r="A39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2286,8 +2271,8 @@
       <c r="A40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2312,8 +2297,8 @@
       <c r="A41" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2338,8 +2323,8 @@
       <c r="A42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2364,8 +2349,8 @@
       <c r="A43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2390,8 +2375,8 @@
       <c r="A44" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2416,8 +2401,8 @@
       <c r="A45" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2442,8 +2427,8 @@
       <c r="A46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2468,8 +2453,8 @@
       <c r="A47" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2494,8 +2479,8 @@
       <c r="A48" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2520,8 +2505,8 @@
       <c r="A49" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2546,8 +2531,8 @@
       <c r="A50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2572,8 +2557,8 @@
       <c r="A51" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2598,8 +2583,8 @@
       <c r="A52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2624,8 +2609,8 @@
       <c r="A53" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2647,11 +2632,11 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2673,7 +2658,7 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="28.5">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="46" t="s">
         <v>79</v>
       </c>
       <c r="B55" s="13"/>
@@ -24846,18 +24831,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25044,11 +25029,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
